--- a/data/income_statement/1digit/size/F_IS_SMALL.xlsx
+++ b/data/income_statement/1digit/size/F_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>F-Construction</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>F-Construction</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>21129291.12357</v>
+        <v>22210240.67071</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>23932034.31934</v>
+        <v>25185406.03802</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>30714573.04408</v>
+        <v>32260217.38719</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>33950178.27196</v>
+        <v>36221459.15301</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>49472290.39612</v>
+        <v>52207174.88906</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>53497916.93924</v>
+        <v>58087964.61611</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>58724387.01615001</v>
+        <v>67404791.82681</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>69515560.89142999</v>
+        <v>76688505.36801998</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>83906233.16528</v>
+        <v>93048689.60126002</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>120994914.39355</v>
+        <v>127512650.78604</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>123797801.39913</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>134627311.76977</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>142636210.568</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>20053343.19096</v>
+        <v>21008001.36265</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>22745118.56175</v>
+        <v>23865316.73414</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>28997151.27417</v>
+        <v>30428312.89925</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>32322520.27105</v>
+        <v>34396248.60969</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>46631455.4305</v>
+        <v>49163476.67657</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>50763788.84858</v>
+        <v>55012488.17284</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>55833800.17789</v>
+        <v>64049229.60582</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>67130568.52118</v>
+        <v>73835552.46701001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>80675630.33341999</v>
+        <v>89214020.28930001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>115468178.02076</v>
+        <v>121530723.97015</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>116423744.34355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>126456303.17564</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>132705616.483</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>634505.46658</v>
+        <v>729492.76547</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>705492.40124</v>
+        <v>808701.9376000001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1091398.6589</v>
+        <v>1159351.47742</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1017741.89739</v>
+        <v>1133317.40434</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1966112.1543</v>
+        <v>2102282.27037</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1689400.74369</v>
+        <v>1888687.61529</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1765912.5262</v>
+        <v>2004058.21915</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1114143.61892</v>
+        <v>1321663.76504</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1845962.00042</v>
+        <v>2077895.96353</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3363266.00244</v>
+        <v>3650733.676579999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5034079.88883</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5465815.47834</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>7149903.841</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>441442.46603</v>
+        <v>472746.54259</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>481423.35635</v>
+        <v>511387.36628</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>626023.11101</v>
+        <v>672553.0105200001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>609916.10352</v>
+        <v>691893.13898</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>874722.8113200001</v>
+        <v>941415.9421199999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1044727.34697</v>
+        <v>1186788.82798</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1124674.31206</v>
+        <v>1351504.00184</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1270848.75133</v>
+        <v>1531289.13597</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1384640.83144</v>
+        <v>1756773.34843</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2163470.37035</v>
+        <v>2331193.13931</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2339977.16675</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2705193.115790001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2780690.244</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>90378.24342999999</v>
+        <v>115032.75366</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>99366.75937</v>
+        <v>100096.99652</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>119125.52806</v>
+        <v>127943.63319</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>134696.85609</v>
+        <v>152773.93703</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>184024.52637</v>
+        <v>173712.48221</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>282305.66381</v>
+        <v>365832.99605</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>393104.19134</v>
+        <v>1592857.8059</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>246917.57717</v>
+        <v>421093.6018</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>355314.28177</v>
+        <v>441435.2067</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>743279.8083100001</v>
+        <v>846604.27822</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>912394.1564399999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1103837.34281</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2336331.804</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>55684.08102999999</v>
+        <v>62617.28327</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>69768.58676999999</v>
+        <v>69771.31944999998</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>76950.83037000001</v>
+        <v>83634.92091</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>89368.13877000001</v>
+        <v>97600.03185</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>148577.75072</v>
+        <v>132838.44397</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>238149.3058</v>
+        <v>317338.63727</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>346736.80737</v>
+        <v>1536829.904</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>198375.27089</v>
+        <v>356213.69794</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>316116.66189</v>
+        <v>388397.0541900001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>629477.4182599999</v>
+        <v>720762.18372</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>787877.8343100001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>966634.03794</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>2174971.872</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>24154.87015</v>
+        <v>35461.2087</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>24576.80719</v>
+        <v>27389.01892</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>33679.83415</v>
+        <v>33636.03164</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>39988.56949</v>
+        <v>40012.74512</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>24132.10557</v>
+        <v>30053.61478</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>27769.20127</v>
+        <v>34311.39269</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>31860.47181</v>
+        <v>39417.14209000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>20060.32553</v>
+        <v>24255.22013</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>24646.6287</v>
+        <v>34033.63573</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>43870.83190999999</v>
+        <v>59851.15993</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>60406.78759000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>68374.01049</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>95491.908</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>10539.29225</v>
+        <v>16954.26169</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>5021.36541</v>
+        <v>2936.658149999999</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>8494.863539999998</v>
+        <v>10672.68064</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>5340.147829999999</v>
+        <v>15161.16006</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>11314.67008</v>
+        <v>10820.42346</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>16387.15674</v>
+        <v>14182.96609</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>14506.91216</v>
+        <v>16610.75981</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>28481.98075</v>
+        <v>40624.68373</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>14550.99118</v>
+        <v>19004.51678</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>69931.55813999999</v>
+        <v>65990.93457</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>64109.53454</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>68829.29437999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>65868.024</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>21038912.88014</v>
+        <v>22095207.91705</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>23832667.55997</v>
+        <v>25085309.0415</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>30595447.51602</v>
+        <v>32132273.754</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>33815481.41587</v>
+        <v>36068685.21598</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>49288265.86975001</v>
+        <v>52033462.40685</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>53215611.27542999</v>
+        <v>57722131.62006</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>58331282.82480999</v>
+        <v>65811934.02090999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>69268643.31425999</v>
+        <v>76267411.76622</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>83550918.88351001</v>
+        <v>92607254.39455999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>120251634.58524</v>
+        <v>126666046.50782</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>122885407.24269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>133523474.42696</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>140299878.764</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>17946113.11167</v>
+        <v>18820615.41941</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>20380333.37203</v>
+        <v>21410916.39367</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>26316896.35059001</v>
+        <v>27620366.93564</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>29059491.24741</v>
+        <v>30932104.88518</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>42858960.02175</v>
+        <v>45216879.73957</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>46363636.47166</v>
+        <v>50304098.348</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>50947527.59211999</v>
+        <v>57429506.58187001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>60620415.46881</v>
+        <v>66385816.08959001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>73985824.27242</v>
+        <v>81411443.12334</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>107262808.95276</v>
+        <v>112473667.92188</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>109639052.40564</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>118815959.51746</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>123669376.008</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>3606238.49691</v>
+        <v>3864905.3163</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>4267120.741690001</v>
+        <v>4594888.917239999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>5797094.16566</v>
+        <v>6244041.144420001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>7120812.11306</v>
+        <v>7771683.326660001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>10928423.11467</v>
+        <v>11732773.3352</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>12427804.07747</v>
+        <v>13633339.89605</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>13763225.35775</v>
+        <v>15964526.42256</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>17425468.81781</v>
+        <v>19799687.81125</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>21016981.09127</v>
+        <v>24185301.19964</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>33402080.84685</v>
+        <v>35201386.307</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>33883090.36483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>36371816.08716</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>34466695.9</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>5049034.74237</v>
+        <v>5155123.041</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>6051162.833260001</v>
+        <v>6183095.034030001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>8113036.913899999</v>
+        <v>8295548.69473</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>8435774.696149999</v>
+        <v>8698234.057340002</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>11045577.36789</v>
+        <v>11362136.74445</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>12840717.28238</v>
+        <v>13458399.77643</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>14960242.32605</v>
+        <v>16064256.19854</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>17917914.52176</v>
+        <v>19005578.78766</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>23404480.19876</v>
+        <v>24929919.97059</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>28631994.25123</v>
+        <v>29510157.18418</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>28530407.82245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>30227564.77438</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>37237892.906</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>9191445.802349998</v>
+        <v>9678324.91815</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>9987424.26627</v>
+        <v>10547965.58068</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>12301907.36653</v>
+        <v>12963641.6106</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>13373788.56397</v>
+        <v>14311250.90686</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>20668623.81631</v>
+        <v>21874219.82012</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>20789679.34079</v>
+        <v>22838613.54042</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>21824621.26126</v>
+        <v>24914746.6083</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>24798599.44491</v>
+        <v>26987178.9682</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>28993988.0325</v>
+        <v>31560754.01517</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>44218736.53494</v>
+        <v>46701662.18535</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>46153606.16948</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>51002385.44905</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>50556837.619</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>99394.07003999999</v>
+        <v>122262.14396</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>74625.53081</v>
+        <v>84966.86172</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>104857.9045</v>
+        <v>117135.48589</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>129115.87423</v>
+        <v>150936.59432</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>216335.72288</v>
+        <v>247749.8398</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>305435.77102</v>
+        <v>373745.1351</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>399438.64706</v>
+        <v>485977.35247</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>478432.6843299999</v>
+        <v>593370.5224800002</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>570374.94989</v>
+        <v>735467.93794</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1009997.31974</v>
+        <v>1060462.24535</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1071948.04888</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1214193.20687</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1407949.583</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>3092799.76847</v>
+        <v>3274592.49764</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>3452334.18794</v>
+        <v>3674392.64783</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>4278551.16543</v>
+        <v>4511906.818360001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>4755990.168460001</v>
+        <v>5136580.3308</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>6429305.847999999</v>
+        <v>6816582.667280001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>6851974.80377</v>
+        <v>7418033.27206</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>7383755.23269</v>
+        <v>8382427.43904</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>8648227.845450001</v>
+        <v>9881595.676630002</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>9565094.611090001</v>
+        <v>11195811.27122</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>12988825.63248</v>
+        <v>14192378.58594</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>13246354.83705</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14707514.9095</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>16630502.756</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1991289.67642</v>
+        <v>2111158.18599</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>2301638.81962</v>
+        <v>2402271.38593</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>2885810.01317</v>
+        <v>3082905.9254</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3210543.9698</v>
+        <v>3498010.76595</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>4240069.11407</v>
+        <v>4549783.339199999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>4548420.498649999</v>
+        <v>4863901.758370001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>5050875.087049999</v>
+        <v>5565911.70225</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>6008876.21689</v>
+        <v>6569253.23384</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>6548140.111909999</v>
+        <v>7344855.878740001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>8600821.673499998</v>
+        <v>8800826.6939</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>8939957.40346</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>9395111.0285</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>9915812.384</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>12011.23863</v>
+        <v>16019.4298</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>6294.662359999999</v>
+        <v>7267.62149</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>6767.95171</v>
+        <v>6820.15534</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>7349.33576</v>
+        <v>8558.53753</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>13318.91467</v>
+        <v>14443.20184</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>14772.18784</v>
+        <v>12443.30092</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>17492.42398</v>
+        <v>19416.66704</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>16223.31273</v>
+        <v>16736.65416</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>16860.78506</v>
+        <v>15497.39033</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>10439.17919</v>
+        <v>13339.85416</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>16047.85805</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>24151.63935</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>19848.364</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>228637.59209</v>
+        <v>235895.7182</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>263159.36586</v>
+        <v>287618.78227</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>363189.18976</v>
+        <v>394391.60715</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>389060.22695</v>
+        <v>451006.20517</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>492648.09164</v>
+        <v>578821.4273999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>525128.84953</v>
+        <v>603903.3179699999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>593243.8504100001</v>
+        <v>682977.89467</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>680538.4141599999</v>
+        <v>755192.00986</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>730202.3040199999</v>
+        <v>879274.27117</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1149861.28871</v>
+        <v>1244850.08143</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1138546.93027</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1256845.50613</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1348643.417</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1750640.8457</v>
+        <v>1859243.03799</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>2032184.7914</v>
+        <v>2107384.98217</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2515852.8717</v>
+        <v>2681694.16291</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2814134.40709</v>
+        <v>3038446.02325</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>3734102.10776</v>
+        <v>3956518.70996</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>4008519.46128</v>
+        <v>4247555.139479999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>4440138.81266</v>
+        <v>4863517.140539999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>5312114.49</v>
+        <v>5797324.56982</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>5801077.02283</v>
+        <v>6450084.21724</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>7440521.2056</v>
+        <v>7542636.75831</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>7785362.61514</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>8114113.883020001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>8547320.603</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1101510.09205</v>
+        <v>1163434.31165</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1150695.36832</v>
+        <v>1272121.2619</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1392741.15226</v>
+        <v>1429000.89296</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1545446.19866</v>
+        <v>1638569.56485</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2189236.73393</v>
+        <v>2266799.32808</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2303554.30512</v>
+        <v>2554131.51369</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2332880.14564</v>
+        <v>2816515.73679</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2639351.62856</v>
+        <v>3312342.44279</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>3016954.49918</v>
+        <v>3850955.39248</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>4388003.95898</v>
+        <v>5391551.89204</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>4306397.43359</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>5312403.881</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>6714690.372</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>276233.6484400001</v>
+        <v>683587.4104100001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>269499.52892</v>
+        <v>746556.8730200001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>321699.48094</v>
+        <v>813398.3462399999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>298583.1676899999</v>
+        <v>832865.74789</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>516846.54051</v>
+        <v>1379474.42439</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>574073.4035799999</v>
+        <v>1847395.5059</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>790380.0889699999</v>
+        <v>2873249.24908</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>812288.6453</v>
+        <v>2479328.1551</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>835233.2761700001</v>
+        <v>2827313.267380001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>3412872.90577</v>
+        <v>8125181.24158</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2595765.14024</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>6465125.032870001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>7178333.816</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>13740.62947</v>
+        <v>122488.65956</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>22023.9149</v>
+        <v>107199.94162</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>18804.62493</v>
+        <v>38415.61571</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>31617.03699</v>
+        <v>57227.92544</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>48542.89308</v>
+        <v>131353.25745</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>39860.80354999999</v>
+        <v>144356.80629</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>38054.80967000001</v>
+        <v>103702.70106</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>57582.74309999999</v>
+        <v>148654.68807</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>52615.97288000001</v>
+        <v>274244.03986</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>167980.48833</v>
+        <v>240497.25699</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>186664.4168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>395309.02799</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>272376.195</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>14698.43085</v>
+        <v>23559.52684</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>9246.28285</v>
+        <v>36748.43239</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>7045.27103</v>
+        <v>16139.56511</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>19239.5778</v>
+        <v>78050.51837000001</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>11256.61762</v>
+        <v>36328.12408</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>22447.60776</v>
+        <v>321756.42498</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>43233.04826</v>
+        <v>352577.69735</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>29859.83835</v>
+        <v>370967.19118</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>33134.84043</v>
+        <v>201053.2201</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>95866.64822</v>
+        <v>235796.40552</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>97285.48013999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>393678.65314</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>143886.432</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>59143.32049000001</v>
+        <v>127651.67873</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>54008.32917</v>
+        <v>126716.89528</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>59788.39420999999</v>
+        <v>138015.35118</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>66201.82824</v>
+        <v>154433.065</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>90069.67601</v>
+        <v>179662.96598</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>113132.93789</v>
+        <v>266400.02442</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>139468.23737</v>
+        <v>340144.5762600001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>150544.97105</v>
+        <v>313434.74327</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>183815.70384</v>
+        <v>438767.35118</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>457599.43038</v>
+        <v>1003671.54007</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>506661.4424</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1066461.34607</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>849074.597</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>2488.02685</v>
+        <v>3026.528800000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>3807.417269999999</v>
+        <v>5565.757249999999</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>2399.44397</v>
+        <v>7049.568780000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>2519.107</v>
+        <v>2346.0543</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>4254.89948</v>
+        <v>4933.48234</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>7457.194790000001</v>
+        <v>6787.63491</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>4164.65371</v>
+        <v>12850.16544</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>4540.03926</v>
+        <v>5542.14457</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>6713.96368</v>
+        <v>7060.8975</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>9464.146000000001</v>
+        <v>30630.38296</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>14341.43193</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>18144.09354</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>22696.622</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>5047.669529999999</v>
+        <v>3329.14162</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>8997.127350000001</v>
+        <v>13479.66477</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>9233.001680000001</v>
+        <v>10536.96524</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>11574.93695</v>
+        <v>8416.998469999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>13515.36591</v>
+        <v>19140.70454</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>16245.11543</v>
+        <v>11389.08484</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>13791.60595</v>
+        <v>10279.36628</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>11118.98551</v>
+        <v>9234.41034</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>12108.43417</v>
+        <v>24130.73932</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>24546.92805</v>
+        <v>13405.92747</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>32931.84668</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>34359.71419</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>31108.725</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>6627.096250000001</v>
+        <v>7486.201690000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>4063.23799</v>
+        <v>7149.87217</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>6332.68027</v>
+        <v>30775.90489</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>5646.60383</v>
+        <v>7325.46552</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>8238.95961</v>
+        <v>23589.44647</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>14596.1842</v>
+        <v>32441.90497</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>18539.8973</v>
+        <v>176046.78831</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>11647.805</v>
+        <v>64173.31862000001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>11269.33953</v>
+        <v>72027.93183</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>28688.79103</v>
+        <v>110707.60845</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>29660.78886</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>80739.12010000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>114173.088</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>75781.78547</v>
+        <v>247567.43154</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>75411.22873</v>
+        <v>302753.32002</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>115812.09124</v>
+        <v>341149.33371</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>59962.21584</v>
+        <v>269965.98332</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>164560.75869</v>
+        <v>601708.22373</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>174141.39865</v>
+        <v>692140.3570900001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>305541.6464500001</v>
+        <v>1349386.78616</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>271988.83493</v>
+        <v>993818.67984</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>264956.04787</v>
+        <v>1189718.2073</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2023687.53828</v>
+        <v>5545476.5643</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1110634.68621</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2548146.55172</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>4554655.237</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>1969.37169</v>
+        <v>11373.88011</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>1936.78608</v>
+        <v>1181.5729</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>1722.73459</v>
+        <v>331.38873</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>1337.44986</v>
+        <v>529.3800600000001</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>683.3851</v>
+        <v>1867.00014</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>596.51262</v>
+        <v>560.0444</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>1037.24058</v>
+        <v>2439.05653</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>1129.01481</v>
+        <v>2686.866990000001</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>390.21911</v>
+        <v>2142.6467</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>1154.95672</v>
+        <v>8744.184760000002</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>3543.72253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>121495.60476</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>6454.643</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>3359.95847</v>
+        <v>3911.82861</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>4491.58807</v>
+        <v>4907.38815</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>1822.31589</v>
+        <v>1836.58093</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>820.30008</v>
+        <v>648.75276</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>4760.21194</v>
+        <v>5613.509349999999</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>1658.35577</v>
+        <v>1242.93772</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>726.8207</v>
+        <v>864.6951599999999</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>8741.726279999999</v>
+        <v>8655.630939999999</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>2212.74154</v>
+        <v>5380.37059</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>5357.89475</v>
+        <v>4962.870449999999</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>1621.80727</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>2521.10595</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>10182.328</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>93377.35936999999</v>
+        <v>133192.53291</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>85513.61651000001</v>
+        <v>140854.02847</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>98738.92313</v>
+        <v>229148.07196</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>99664.11110000001</v>
+        <v>253921.60465</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>170963.77307</v>
+        <v>375277.71031</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>183937.29292</v>
+        <v>370320.28628</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>225822.12898</v>
+        <v>524957.41653</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>265134.68701</v>
+        <v>562160.4812799999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>268016.01312</v>
+        <v>612787.863</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>598526.0840100001</v>
+        <v>931288.50061</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>612419.51742</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1804269.81541</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1173725.949</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>174730.71167</v>
+        <v>493044.7149199999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>140473.01329</v>
+        <v>361568.46124</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>202409.40756</v>
+        <v>492393.15501</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>251353.28454</v>
+        <v>372551.99006</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>302165.46759</v>
+        <v>863205.49664</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>295569.03908</v>
+        <v>965906.61112</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>415275.17244</v>
+        <v>1780956.87894</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>488228.47966</v>
+        <v>1543727.62892</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>485600.75954</v>
+        <v>2019294.28991</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2883161.76604</v>
+        <v>7922754.24227</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1727868.13379</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>4014595.27975</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>6488332.986</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>5036.384700000001</v>
+        <v>7224.565439999999</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>3756.17571</v>
+        <v>4212.01979</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>6961.75711</v>
+        <v>8152.27972</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>6443.90435</v>
+        <v>7317.353840000001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>9352.432929999999</v>
+        <v>9521.816769999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>7671.80392</v>
+        <v>7872.24767</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>8213.940879999998</v>
+        <v>10243.15654</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>12824.74144</v>
+        <v>13120.83656</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>9935.790560000001</v>
+        <v>11800.60709</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>14034.8722</v>
+        <v>22443.82408999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>22167.32948</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>24180.73652</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>21870.979</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>28493.66182</v>
+        <v>32967.06890000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>15895.71144</v>
+        <v>17651.02155</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>21170.61887</v>
+        <v>48673.2394</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>35445.40989</v>
+        <v>37774.55951000001</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>38849.62953</v>
+        <v>55246.7854</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>39316.60602</v>
+        <v>67977.59378</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>44968.55047000001</v>
+        <v>72008.32159000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>59213.44979000001</v>
+        <v>75479.62827</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>59115.95438</v>
+        <v>58456.00426</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>170109.57985</v>
+        <v>173778.03191</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>162937.61152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>166658.55401</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>215130.464</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>1317.64209</v>
+        <v>4416.98917</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>2177.9639</v>
+        <v>2961.17095</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>5173.60497</v>
+        <v>8756.861929999999</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>2789.70636</v>
+        <v>35628.01097</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>1599.69969</v>
+        <v>44189.04917</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>1595.69022</v>
+        <v>23711.39281</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>7525.673929999999</v>
+        <v>13582.41637</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>8532.968919999999</v>
+        <v>8869.099799999998</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>10280.77561</v>
+        <v>23364.83325</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>16293.20444</v>
+        <v>51484.25938</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>12888.03033</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>41424.81785</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>27594.004</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>83514.65945000001</v>
+        <v>241107.81223</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>72097.27901</v>
+        <v>266245.42678</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>112305.54735</v>
+        <v>352419.31914</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>66111.33626</v>
+        <v>215900.9322</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>173329.52424</v>
+        <v>647487.2452100001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>166949.83046</v>
+        <v>718956.03861</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>272979.81488</v>
+        <v>1519210.485</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>264797.66875</v>
+        <v>1205385.45364</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>283532.38612</v>
+        <v>1417905.40283</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2288975.78092</v>
+        <v>7025503.03363</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1205674.25822</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2950571.85593</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>5768736.254</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>1447.93467</v>
+        <v>7063.16522</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>2317.31499</v>
+        <v>1265.02624</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>1107.40763</v>
+        <v>430.27584</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>940.46113</v>
+        <v>484.93139</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>482.32422</v>
+        <v>689.1070299999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>1877.13731</v>
+        <v>2269.50012</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>1120.58285</v>
+        <v>6457.848899999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>805.52863</v>
+        <v>2156.90283</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>737.48131</v>
+        <v>50706.45112</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>1665.24646</v>
+        <v>10322.57603</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>2690.0184</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>122322.243</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>5349.912</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>2288.57116</v>
+        <v>2270.48508</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>4516.196609999999</v>
+        <v>4998.40785</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>899.8145299999999</v>
+        <v>726.68184</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>2763.98968</v>
+        <v>2810.81942</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>1509.0139</v>
+        <v>2751.59275</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>248.97367</v>
+        <v>208.82391</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>758.46942</v>
+        <v>3946.87879</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>5199.261</v>
+        <v>5611.888809999999</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>713.7687699999999</v>
+        <v>601.85438</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>905.7986100000001</v>
+        <v>424.73526</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>759.18703</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>812.41705</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>1532.169</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>52631.85777999999</v>
+        <v>197994.62888</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>39712.37162999999</v>
+        <v>64235.38808</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>54790.6571</v>
+        <v>73234.49714000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>136858.47687</v>
+        <v>72635.38273</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>77042.84307999999</v>
+        <v>103319.90031</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>77908.99747999999</v>
+        <v>144911.01422</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>79708.14001</v>
+        <v>155507.77175</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>136854.86113</v>
+        <v>233103.81901</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>121284.60279</v>
+        <v>456459.13698</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>391177.28356</v>
+        <v>638797.78197</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>320751.6988099999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>708624.65539</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>448119.204</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>233825.83329</v>
+        <v>354934.0767</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>210410.83632</v>
+        <v>365649.02349</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>269418.28202</v>
+        <v>480861.39356</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>373295.61423</v>
+        <v>569870.46219</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>507966.4106800001</v>
+        <v>861845.9899800001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>657864.3412200001</v>
+        <v>1132320.25075</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>789770.61188</v>
+        <v>1712141.22221</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>951725.16677</v>
+        <v>1791886.13074</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1148894.8036</v>
+        <v>2329809.27102</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>3018982.767750001</v>
+        <v>5229032.94226</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2970000.9173</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>5369271.74131</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>5985996.839</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>220597.23448</v>
+        <v>308168.47781</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>197624.2823</v>
+        <v>307424.84566</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>253191.22234</v>
+        <v>445510.02337</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>355944.34062</v>
+        <v>509725.1122399999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>480743.9335</v>
+        <v>770057.79406</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>628126.39214</v>
+        <v>984483.9438099999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>749571.53264</v>
+        <v>1400066.57477</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>903013.6367099999</v>
+        <v>1591815.04353</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1094553.51643</v>
+        <v>2081660.99507</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2792049.10839</v>
+        <v>4411886.704960001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2811504.74366</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>4833130.206389999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4682219.907</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>13228.59881</v>
+        <v>46765.59889</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>12786.55402</v>
+        <v>58224.17783</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>16227.05968</v>
+        <v>35351.37019</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>17351.27361</v>
+        <v>60145.34995</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>27222.47718</v>
+        <v>91788.19592</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>29737.94908</v>
+        <v>147836.30694</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>40199.07924</v>
+        <v>312074.64744</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>48711.53006</v>
+        <v>200071.08721</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>54341.28717</v>
+        <v>248148.27595</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>226933.65936</v>
+        <v>817146.2373</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>158496.17364</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>536141.53492</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1303776.932</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>969187.19553</v>
+        <v>999042.9304399999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>1069311.04763</v>
+        <v>1291460.65019</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1242612.94362</v>
+        <v>1269144.69063</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1219380.46758</v>
+        <v>1529012.86049</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1895951.39617</v>
+        <v>1921222.26585</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1924194.3284</v>
+        <v>2303300.15772</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1918214.45029</v>
+        <v>2196666.88472</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2011686.62743</v>
+        <v>2456056.83823</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>2217692.21221</v>
+        <v>2329165.09893</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1898732.33096</v>
+        <v>364945.94909</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2204293.52274</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2393661.89281</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1418694.363</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>134833.78035</v>
+        <v>300591.65308</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>163431.40782</v>
+        <v>245698.93152</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>228648.40793</v>
+        <v>289638.01345</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>242134.19625</v>
+        <v>378057.59718</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>323096.09469</v>
+        <v>554230.5355600001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>368527.96036</v>
+        <v>689000.8144</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>457859.34707</v>
+        <v>642487.31767</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>502184.6613</v>
+        <v>858077.17633</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>609991.73842</v>
+        <v>971800.45108</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1049602.90533</v>
+        <v>1445540.31989</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1281680.96582</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1717544.57885</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>2330308.938</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>17454.89353</v>
+        <v>29764.3429</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>13062.33628</v>
+        <v>16474.43124</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>28369.39466</v>
+        <v>56831.99417000001</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>27469.43654</v>
+        <v>36347.49225</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>16658.07292</v>
+        <v>112480.43911</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>14374.92773</v>
+        <v>31782.60964</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>25193.77892</v>
+        <v>30291.65554</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>44423.91195000001</v>
+        <v>54578.28253</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>39811.60881000001</v>
+        <v>50105.94507</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>37464.18924</v>
+        <v>74875.00644</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>66466.81274000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>75405.95522</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>110198.465</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>117378.88682</v>
+        <v>270827.31018</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>150369.07154</v>
+        <v>229224.50028</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>200279.01327</v>
+        <v>232806.01928</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>214664.75971</v>
+        <v>341710.1049300001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>306438.0217700001</v>
+        <v>441750.0964500001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>354153.03263</v>
+        <v>657218.20476</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>432665.5681500001</v>
+        <v>612195.66213</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>457760.74935</v>
+        <v>803498.8938</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>570180.1296100001</v>
+        <v>921694.5060099999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1012138.71609</v>
+        <v>1370665.31345</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1215214.15308</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1642138.62363</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>2220110.473</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>174997.03893</v>
+        <v>257792.46662</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>187861.37612</v>
+        <v>241804.90411</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1252817.30224</v>
+        <v>1500329.93739</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>235722.88973</v>
+        <v>356821.86464</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>313149.94376</v>
+        <v>485178.0077200001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>803850.93294</v>
+        <v>977640.9707899999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>444209.87561</v>
+        <v>627629.2903199999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1092999.26942</v>
+        <v>1520079.01243</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>598530.10679</v>
+        <v>816717.5545000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1723312.29616</v>
+        <v>2184615.34603</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1042068.59926</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1401449.91589</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1747944.878</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>4209.73752</v>
+        <v>21422.17156</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2802.73902</v>
+        <v>20962.03468999999</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>5737.543299999999</v>
+        <v>23644.06861</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>4561.118570000001</v>
+        <v>6906.24682</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>4932.30602</v>
+        <v>4831.196400000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>4877.19163</v>
+        <v>6955.743890000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3933.71011</v>
+        <v>23077.48823</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>5621.089</v>
+        <v>16806.41147</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>10943.68044</v>
+        <v>12619.55848</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>7997.046</v>
+        <v>24759.79906</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>15347.07703</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>28086.05322</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>47817.749</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>32652.69694</v>
+        <v>33214.17556</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>30899.16559</v>
+        <v>34164.86719</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>48830.16528999999</v>
+        <v>50421.28343</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>34435.13271</v>
+        <v>48575.44413</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>46782.25798</v>
+        <v>121051.8353</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>40111.15719999999</v>
+        <v>55305.78361</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>57218.48452000001</v>
+        <v>72461.40038000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>57091.0753</v>
+        <v>88150.64560999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>64963.78924000001</v>
+        <v>83147.04609</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>144303.82303</v>
+        <v>163112.85393</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>108238.84747</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>131864.14418</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>159944.699</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>138134.60447</v>
+        <v>203156.1195</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>154159.47151</v>
+        <v>186678.00223</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1198249.59365</v>
+        <v>1426264.58535</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>196726.63845</v>
+        <v>301340.17369</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>261435.37976</v>
+        <v>359294.97602</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>758862.5841100001</v>
+        <v>915379.44329</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>383057.68098</v>
+        <v>532090.40171</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1030287.10512</v>
+        <v>1415121.95535</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>522622.63711</v>
+        <v>720950.9499299999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1571011.42713</v>
+        <v>1996742.69304</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>918482.67476</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1241499.71849</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1540182.43</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>929023.9369499998</v>
+        <v>1041842.1169</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1044881.07933</v>
+        <v>1295354.6776</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>218444.04931</v>
+        <v>58452.76668999998</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1225791.7741</v>
+        <v>1550248.59303</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1905897.5471</v>
+        <v>1990274.79369</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1488871.35582</v>
+        <v>2014660.00133</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1931863.92175</v>
+        <v>2211524.91207</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1420872.01931</v>
+        <v>1794055.00213</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>2229153.84384</v>
+        <v>2484247.99551</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1225022.94013</v>
+        <v>-374129.07705</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2443905.8893</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2709756.55577</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2001058.423</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>210444.86455</v>
+        <v>230351.17101</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>234372.35264</v>
+        <v>264024.48517</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>275627.0579</v>
+        <v>306370.02112</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>297112.1742900001</v>
+        <v>338090.24258</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>441764.33619</v>
+        <v>484662.8288</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>449404.90463</v>
+        <v>514258.43528</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>485372.15909</v>
+        <v>598015.4094400001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>529310.70995</v>
+        <v>675494.1648</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>571244.18622</v>
+        <v>718427.1376799999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>913220.09299</v>
+        <v>973543.1360299999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>952359.0194</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1259675.18174</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1300308.92</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>718579.0723999999</v>
+        <v>811490.94589</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>810508.7266899999</v>
+        <v>1031330.19243</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-57183.00859</v>
+        <v>-247917.25443</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>928679.5998099999</v>
+        <v>1212158.35045</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1464133.21091</v>
+        <v>1505611.96489</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1039466.45119</v>
+        <v>1500401.56605</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1446491.76266</v>
+        <v>1613509.50263</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>891561.3093600001</v>
+        <v>1118560.83733</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1657909.65762</v>
+        <v>1765820.85783</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>311802.84714</v>
+        <v>-1347672.21308</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1491546.8699</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1450081.37403</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>700749.503</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>18015</v>
+        <v>13346</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>20647</v>
+        <v>15460</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>23762</v>
+        <v>18356</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>26191</v>
+        <v>20484</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>30880</v>
+        <v>22805</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>33236</v>
+        <v>24516</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>36339</v>
+        <v>26894</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>40108</v>
+        <v>28669</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>44664</v>
+        <v>31581</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>34478</v>
+        <v>26150</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>32161</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>22347</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>23475</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>